--- a/biology/Botanique/Minthostachys_mollis/Minthostachys_mollis.xlsx
+++ b/biology/Botanique/Minthostachys_mollis/Minthostachys_mollis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Minthostachys mollis ou muña est une plante médicinale endémique des Andes du Venezuela à la Colombie. C'est l'espèce la plus largement répandue du genre Minthostachys. Le nom de muña vient de la langue quechua, qui signifie menthum en latin (menthe). Elle est aussi connue sous les noms de tipo, tipollo ou poleo[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minthostachys mollis ou muña est une plante médicinale endémique des Andes du Venezuela à la Colombie. C'est l'espèce la plus largement répandue du genre Minthostachys. Le nom de muña vient de la langue quechua, qui signifie menthum en latin (menthe). Elle est aussi connue sous les noms de tipo, tipollo ou poleo.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (23 septembre 2018)[5], World Checklist of Selected Plant Families (WCSP)  (23 septembre 2018)[6] et Tropicos                                           (23 septembre 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (23 septembre 2018), World Checklist of Selected Plant Families (WCSP)  (23 septembre 2018) et Tropicos                                           (23 septembre 2018) :
 variété Minthostachys mollis var. hybrida Schmidt-Leb. (2008)
 variété Minthostachys mollis var. mandoniana (Briq.) Schmidt-Leb. (2008)
 variété Minthostachys mollis var. mollis
-Selon The Plant List            (23 septembre 2018)[2] :
+Selon The Plant List            (23 septembre 2018) :
 variété Minthostachys mollis var. mandoniana (Briq.) Schmidt-Leb.</t>
         </is>
       </c>
